--- a/2-Empirical-Evidence/raw_data/Maryland.xlsx
+++ b/2-Empirical-Evidence/raw_data/Maryland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN240010000000003</t>
@@ -826,10 +842,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>10.7</v>
@@ -924,10 +952,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>3450.0</v>
@@ -1022,10 +1060,20 @@
       <c r="AF6" t="n" s="8">
         <v>2333.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>1779.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>1153.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>863.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>28730.0</v>
@@ -1120,10 +1168,20 @@
       <c r="AF7" t="n" s="8">
         <v>29022.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>28617.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>29877.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>29936.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>32180.0</v>
@@ -1218,10 +1276,20 @@
       <c r="AF8" t="n" s="8">
         <v>31355.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>30396.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>31030.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>30799.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>3.2</v>
@@ -1316,10 +1384,20 @@
       <c r="AF9" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>7416.0</v>
@@ -1414,10 +1492,20 @@
       <c r="AF10" t="n" s="8">
         <v>17591.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>13430.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>8174.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>5790.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>222400.0</v>
@@ -1512,10 +1600,20 @@
       <c r="AF11" t="n" s="8">
         <v>300122.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>297439.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>304604.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>309390.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>229816.0</v>
@@ -1610,10 +1708,20 @@
       <c r="AF12" t="n" s="8">
         <v>317713.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>310869.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>312778.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>315180.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>4.4</v>
@@ -1708,10 +1816,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>16737.0</v>
@@ -1806,10 +1924,20 @@
       <c r="AF14" t="n" s="8">
         <v>29495.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>22766.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>13487.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>9755.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>362772.0</v>
@@ -1904,10 +2032,20 @@
       <c r="AF15" t="n" s="8">
         <v>423067.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>419248.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>429325.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>436039.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>379509.0</v>
@@ -2002,10 +2140,20 @@
       <c r="AF16" t="n" s="8">
         <v>452562.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>442014.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>442812.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>445794.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>3.4</v>
@@ -2100,10 +2248,20 @@
       <c r="AF17" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>947.0</v>
@@ -2198,10 +2356,20 @@
       <c r="AF18" t="n" s="8">
         <v>2470.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>2023.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>1340.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>930.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>26750.0</v>
@@ -2296,10 +2464,20 @@
       <c r="AF19" t="n" s="8">
         <v>47287.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>46487.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>47524.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>48567.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>27697.0</v>
@@ -2394,10 +2572,20 @@
       <c r="AF20" t="n" s="8">
         <v>49757.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>48510.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>48864.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>49497.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>4.2</v>
@@ -2492,10 +2680,20 @@
       <c r="AF21" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>582.0</v>
@@ -2590,10 +2788,20 @@
       <c r="AF22" t="n" s="8">
         <v>944.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>752.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>484.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>358.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>13258.0</v>
@@ -2688,10 +2896,20 @@
       <c r="AF23" t="n" s="8">
         <v>16770.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>16241.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>16472.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>16470.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>13840.0</v>
@@ -2786,10 +3004,20 @@
       <c r="AF24" t="n" s="8">
         <v>17714.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>16993.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>16956.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>16828.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>3.5</v>
@@ -2884,10 +3112,20 @@
       <c r="AF25" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>2399.0</v>
@@ -2982,10 +3220,20 @@
       <c r="AF26" t="n" s="8">
         <v>4608.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>3557.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>2307.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>1626.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>65515.0</v>
@@ -3080,10 +3328,20 @@
       <c r="AF27" t="n" s="8">
         <v>90511.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>89799.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>92088.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>93664.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>67914.0</v>
@@ -3178,10 +3436,20 @@
       <c r="AF28" t="n" s="8">
         <v>95119.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>93356.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>94395.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>95290.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>9.7</v>
@@ -3276,10 +3544,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>3452.0</v>
@@ -3374,10 +3652,20 @@
       <c r="AF30" t="n" s="8">
         <v>3014.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>2478.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>1648.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>1207.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>32314.0</v>
@@ -3472,10 +3760,20 @@
       <c r="AF31" t="n" s="8">
         <v>50515.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>49777.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>51756.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>53591.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>35766.0</v>
@@ -3570,10 +3868,20 @@
       <c r="AF32" t="n" s="8">
         <v>53529.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>52255.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>53404.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>54798.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>2.7</v>
@@ -3668,10 +3976,20 @@
       <c r="AF33" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>1440.0</v>
@@ -3766,10 +4084,20 @@
       <c r="AF34" t="n" s="8">
         <v>5621.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>4442.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>2646.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>1884.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>52200.0</v>
@@ -3864,10 +4192,20 @@
       <c r="AF35" t="n" s="8">
         <v>82636.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>81175.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>83028.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>84864.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>53640.0</v>
@@ -3962,10 +4300,20 @@
       <c r="AF36" t="n" s="8">
         <v>88257.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>85617.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>85674.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>86748.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>7.1</v>
@@ -4060,10 +4408,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>1109.0</v>
@@ -4158,10 +4516,20 @@
       <c r="AF38" t="n" s="8">
         <v>1039.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>828.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>530.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>371.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>14573.0</v>
@@ -4256,10 +4624,20 @@
       <c r="AF39" t="n" s="8">
         <v>15520.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>15013.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>15195.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>15919.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>15682.0</v>
@@ -4354,10 +4732,20 @@
       <c r="AF40" t="n" s="8">
         <v>16559.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>15841.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>15725.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>16290.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>3.8</v>
@@ -4452,10 +4840,20 @@
       <c r="AF41" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>3207.0</v>
@@ -4550,10 +4948,20 @@
       <c r="AF42" t="n" s="8">
         <v>7715.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>5861.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>3693.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>2665.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>80278.0</v>
@@ -4648,10 +5056,20 @@
       <c r="AF43" t="n" s="8">
         <v>129952.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>127988.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>131346.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>133976.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>83485.0</v>
@@ -4746,10 +5164,20 @@
       <c r="AF44" t="n" s="8">
         <v>137667.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>133849.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>135039.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>136641.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>9.1</v>
@@ -4844,10 +5272,20 @@
       <c r="AF45" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1219.0</v>
@@ -4942,10 +5380,20 @@
       <c r="AF46" t="n" s="8">
         <v>988.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>732.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>476.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>345.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>12154.0</v>
@@ -5040,10 +5488,20 @@
       <c r="AF47" t="n" s="8">
         <v>14623.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>14408.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>14353.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>14551.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>13373.0</v>
@@ -5138,10 +5596,20 @@
       <c r="AF48" t="n" s="8">
         <v>15611.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>15140.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>14829.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>14896.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>4.2</v>
@@ -5236,10 +5704,20 @@
       <c r="AF49" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>4116.0</v>
@@ -5334,10 +5812,20 @@
       <c r="AF50" t="n" s="8">
         <v>7776.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>6039.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>3815.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>2783.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>93158.0</v>
@@ -5432,10 +5920,20 @@
       <c r="AF51" t="n" s="8">
         <v>133699.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>132471.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>135753.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>137931.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>97274.0</v>
@@ -5530,10 +6028,20 @@
       <c r="AF52" t="n" s="8">
         <v>141475.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>138510.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>139568.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>140714.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>2.4</v>
@@ -5628,10 +6136,20 @@
       <c r="AF53" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>2672.0</v>
@@ -5726,10 +6244,20 @@
       <c r="AF54" t="n" s="8">
         <v>9304.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>7341.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>4533.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>3216.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>109730.0</v>
@@ -5824,10 +6352,20 @@
       <c r="AF55" t="n" s="8">
         <v>179877.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>178266.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>182520.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>185359.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>112402.0</v>
@@ -5922,10 +6460,20 @@
       <c r="AF56" t="n" s="8">
         <v>189181.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>185607.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>187053.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>188575.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>5.5</v>
@@ -6020,10 +6568,20 @@
       <c r="AF57" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>510.0</v>
@@ -6118,10 +6676,20 @@
       <c r="AF58" t="n" s="8">
         <v>620.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>477.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>323.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>233.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>8812.0</v>
@@ -6216,10 +6784,20 @@
       <c r="AF59" t="n" s="8">
         <v>9221.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>8984.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>9378.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>9636.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>9322.0</v>
@@ -6314,10 +6892,20 @@
       <c r="AF60" t="n" s="8">
         <v>9841.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>9461.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>9701.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>9869.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>2.3</v>
@@ -6412,10 +7000,20 @@
       <c r="AF61" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>10121.0</v>
@@ -6510,10 +7108,20 @@
       <c r="AF62" t="n" s="8">
         <v>33664.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>27069.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>14591.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>10224.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>426919.0</v>
@@ -6608,10 +7216,20 @@
       <c r="AF63" t="n" s="8">
         <v>523592.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>516016.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>528308.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>538156.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>437040.0</v>
@@ -6706,10 +7324,20 @@
       <c r="AF64" t="n" s="8">
         <v>557256.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>543085.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>542899.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>548380.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>3.4</v>
@@ -6804,10 +7432,20 @@
       <c r="AF65" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>14200.0</v>
@@ -6902,10 +7540,20 @@
       <c r="AF66" t="n" s="8">
         <v>40054.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>33182.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>16208.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>11175.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>408530.0</v>
@@ -7000,10 +7648,20 @@
       <c r="AF67" t="n" s="8">
         <v>473084.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>464942.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>475409.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>485870.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>422730.0</v>
@@ -7098,10 +7756,20 @@
       <c r="AF68" t="n" s="8">
         <v>513138.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>498124.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>491617.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>497045.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>3.3</v>
@@ -7196,10 +7864,20 @@
       <c r="AF69" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>585.0</v>
@@ -7294,10 +7972,20 @@
       <c r="AF70" t="n" s="8">
         <v>1457.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>1100.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>712.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>503.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>17361.0</v>
@@ -7392,10 +8080,20 @@
       <c r="AF71" t="n" s="8">
         <v>26668.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>26508.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>27230.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>27750.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>17946.0</v>
@@ -7490,10 +8188,20 @@
       <c r="AF72" t="n" s="8">
         <v>28125.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>27608.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>27942.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>28253.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>4.0</v>
@@ -7588,10 +8296,20 @@
       <c r="AF73" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>1530.0</v>
@@ -7686,10 +8404,20 @@
       <c r="AF74" t="n" s="8">
         <v>2701.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>2335.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>1626.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>1154.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>36377.0</v>
@@ -7784,10 +8512,20 @@
       <c r="AF75" t="n" s="8">
         <v>55860.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>55656.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>55659.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>57277.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>37907.0</v>
@@ -7882,10 +8620,20 @@
       <c r="AF76" t="n" s="8">
         <v>58561.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>57991.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>57285.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>58431.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>14.5</v>
@@ -7980,10 +8728,20 @@
       <c r="AF77" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1598.0</v>
@@ -8078,10 +8836,20 @@
       <c r="AF78" t="n" s="8">
         <v>704.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>602.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>396.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>291.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>9408.0</v>
@@ -8176,10 +8944,20 @@
       <c r="AF79" t="n" s="8">
         <v>8018.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>8201.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>8573.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>8924.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>11006.0</v>
@@ -8274,10 +9052,20 @@
       <c r="AF80" t="n" s="8">
         <v>8722.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>8803.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>8969.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>9215.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>2.8</v>
@@ -8372,10 +9160,20 @@
       <c r="AF81" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>460.0</v>
@@ -8470,10 +9268,20 @@
       <c r="AF82" t="n" s="8">
         <v>1040.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>844.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>542.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>382.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>15827.0</v>
@@ -8568,10 +9376,20 @@
       <c r="AF83" t="n" s="8">
         <v>16953.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>16368.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>16853.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>17008.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>16287.0</v>
@@ -8666,10 +9484,20 @@
       <c r="AF84" t="n" s="8">
         <v>17993.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>17212.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>17395.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>17390.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>6.5</v>
@@ -8764,10 +9592,20 @@
       <c r="AF85" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>3915.0</v>
@@ -8862,10 +9700,20 @@
       <c r="AF86" t="n" s="8">
         <v>4768.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>3523.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>2216.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>1672.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>56397.0</v>
@@ -8960,10 +9808,20 @@
       <c r="AF87" t="n" s="8">
         <v>68259.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>68410.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>69859.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>70594.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>60312.0</v>
@@ -9058,10 +9916,20 @@
       <c r="AF88" t="n" s="8">
         <v>73027.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>71933.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>72075.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>72266.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>6.5</v>
@@ -9156,10 +10024,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>2718.0</v>
@@ -9254,10 +10132,20 @@
       <c r="AF90" t="n" s="8">
         <v>3587.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>2773.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>1811.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>1324.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>39198.0</v>
@@ -9352,10 +10240,20 @@
       <c r="AF91" t="n" s="8">
         <v>46253.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>47210.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>49029.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>50783.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>41916.0</v>
@@ -9450,10 +10348,20 @@
       <c r="AF92" t="n" s="8">
         <v>49840.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>49983.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>50840.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>52107.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>8.0</v>
@@ -9548,10 +10456,20 @@
       <c r="AF93" t="n" s="10">
         <v>10.9</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>1770.0</v>
@@ -9646,10 +10564,20 @@
       <c r="AF94" t="n" s="8">
         <v>2741.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>1843.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>1180.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>850.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>20372.0</v>
@@ -9744,10 +10672,20 @@
       <c r="AF95" t="n" s="8">
         <v>22517.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>22995.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>23879.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>24739.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>22142.0</v>
@@ -9842,10 +10780,20 @@
       <c r="AF96" t="n" s="8">
         <v>25258.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>24838.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>25059.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>25589.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>7.5</v>
@@ -9940,10 +10888,20 @@
       <c r="AF97" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>25060.0</v>
@@ -10038,10 +10996,20 @@
       <c r="AF98" t="n" s="8">
         <v>23859.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>18894.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>10749.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>7999.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>310266.0</v>
@@ -10136,10 +11104,20 @@
       <c r="AF99" t="n" s="8">
         <v>258446.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>255999.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>262199.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>266276.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>335326.0</v>
@@ -10234,6 +11212,16 @@
       <c r="AF100" t="n" s="8">
         <v>282305.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>274893.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>272948.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>274275.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -10244,7 +11232,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:22:00 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:43:25 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
